--- a/biology/Médecine/Revue_d'épidémiologie_et_de_santé_publique/Revue_d'épidémiologie_et_de_santé_publique.xlsx
+++ b/biology/Médecine/Revue_d'épidémiologie_et_de_santé_publique/Revue_d'épidémiologie_et_de_santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Revue_d%27%C3%A9pid%C3%A9miologie_et_de_sant%C3%A9_publique</t>
+          <t>Revue_d'épidémiologie_et_de_santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Revue d’épidémiologie et de santé publique (RESP)  est une revue internationale qui couvre tous les aspects de l’épidémiologie et de la santé publique. Elle comprend de nouvelles recherches, des opinions et le nouveau matériel concernant l’étude et l’amélioration de la qualité de vie des communautés dans le monde. 
